--- a/tests/test_excelparser/onto_only_classes.xlsx
+++ b/tests/test_excelparser/onto_only_classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\flb\projects\Team4.0\EMMOntoPy\tests\test_excelparser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5258C8-0C34-4F83-AFCF-0D8473A3DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC81E3E8-D522-41CA-A028-E18D81E80830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10320" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-2685" windowWidth="38640" windowHeight="23790" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Resolvable URL or path to imported ontologies (one per line )</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/emmo-repo/emmo-repo.github.io/master/versions/1.0.0-beta/emmo-inferred-chemistry2.ttl</t>
-  </si>
-  <si>
     <t>Concept</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Test of undefined parent</t>
   </si>
   <si>
-    <t>Pattern</t>
-  </si>
-  <si>
     <t>everything that can be perceived or measured</t>
   </si>
   <si>
@@ -447,6 +441,12 @@
   </si>
   <si>
     <t>emmo:Atom</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/emmo-repo/emmo-repo.github.io/master/versions/1.0.0-beta4/emmo-inferred.ttl</t>
+  </si>
+  <si>
+    <t>SpecialPattern</t>
   </si>
 </sst>
 </file>
@@ -568,19 +568,19 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -603,17 +603,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1000,14 +1000,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="120.1796875" customWidth="1"/>
-    <col min="3" max="3" width="64.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="120.140625" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1104,31 +1104,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
     </row>
   </sheetData>
@@ -1142,77 +1142,74 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="120.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{4AE6D9F9-5AA3-467D-A245-2C36C0027930}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1220,34 +1217,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="41.54296875" customWidth="1"/>
-    <col min="4" max="4" width="43.81640625" customWidth="1"/>
-    <col min="5" max="5" width="29.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="69.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -1256,416 +1253,416 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="G7" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="H8" s="8"/>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" s="8"/>
       <c r="J9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="J12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="J12" t="s">
+      <c r="C13" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="G13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>78</v>
       </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="J14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>84</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="I15" t="s">
+      <c r="C16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="J17" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="8" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>92</v>
       </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" t="s">
         <v>96</v>
       </c>
-      <c r="J21" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>99</v>
       </c>
-      <c r="J22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
       <c r="G23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>138</v>
       </c>
-      <c r="J23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="8"/>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H24" s="8"/>
       <c r="J24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
         <v>107</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>108</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>109</v>
       </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
-      </c>
       <c r="J25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" t="s">
         <v>114</v>
       </c>
-      <c r="G26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" t="s">
-        <v>116</v>
-      </c>
       <c r="J26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1684,11 +1681,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1700,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1718,7 +1715,7 @@
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
